--- a/overview_dashboard.xlsx
+++ b/overview_dashboard.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>85</v>
+        <v>79.04000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>15</v>
+        <v>20.96</v>
       </c>
     </row>
     <row r="6">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>82</v>
+        <v>72.38</v>
       </c>
     </row>
     <row r="7">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>88</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>3</v>
@@ -567,16 +567,16 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -586,10 +586,10 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3" t="n">
         <v>2</v>
@@ -608,10 +608,10 @@
         <v>42</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>0</v>

--- a/overview_dashboard.xlsx
+++ b/overview_dashboard.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>70.40000000000001</v>
+        <v>69.92</v>
       </c>
     </row>
     <row r="8">
@@ -520,7 +520,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Completed with Penalty</t>
+          <t>With Penalty</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -544,36 +544,36 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Agile Development - Assignment 1 (Bugs and Fixes)</t>
+          <t>SE - Assignment 1</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3" t="n">
         <v>3</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Agile Development - Assignment 2 (Software Architecture)</t>
+          <t>SE - Assignment 2</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>2</v>
@@ -582,39 +582,39 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Machine Learning - Assignment 1 (Data Analysis)</t>
+          <t>DS - Assignment 1</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>9</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Machine Learning - Assignment 2 (Machine Learning)</t>
+          <t>DS - Assignment 2</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="n">
         <v>6</v>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
